--- a/documentation/working_schedule.xlsx
+++ b/documentation/working_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebrarsudedogan/PycharmProjects/Mining-Retail-Behavior-in-Istanbul-Malls-Using-Consumer-Sentiment-Indices/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DB5425-7D19-9D48-860B-F33DD8D867EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172BBE77-72D8-514B-9C0E-6FB92CFE5A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{900F4403-C22E-0342-A1F2-D386E10D2AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>Veri Toplama</t>
   </si>
@@ -190,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -203,9 +203,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +551,7 @@
   <dimension ref="B3:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,33 +635,35 @@
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="8"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="7"/>
       <c r="M4" s="1"/>
       <c r="N4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -677,23 +676,23 @@
       <c r="B5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="8"/>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
       <c r="M5" s="1"/>
       <c r="N5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="P5" s="5"/>
@@ -710,23 +709,23 @@
       <c r="B6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
       <c r="M6" s="1"/>
       <c r="N6" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q6" s="4"/>
@@ -742,24 +741,24 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
       <c r="M7" s="1"/>
       <c r="N7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q7" s="4"/>
@@ -775,24 +774,24 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
       <c r="M8" s="1"/>
       <c r="N8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="7" t="s">
+      <c r="P8" s="6" t="s">
         <v>13</v>
       </c>
       <c r="Q8" s="4"/>
@@ -808,18 +807,18 @@
       <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
       <c r="M9" s="1"/>
       <c r="N9" s="4" t="s">
         <v>14</v>
@@ -839,29 +838,33 @@
       <c r="B10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
       <c r="M10" s="1"/>
       <c r="N10" s="4" t="s">
         <v>15</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="5"/>
+      <c r="P10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="R10" s="5"/>
       <c r="S10" s="5"/>
       <c r="T10" s="4"/>
@@ -874,29 +877,31 @@
       <c r="B11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
       <c r="M11" s="1"/>
       <c r="N11" s="4" t="s">
         <v>16</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
-      <c r="Q11" s="6"/>
+      <c r="Q11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="R11" s="5"/>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
@@ -909,20 +914,20 @@
       <c r="B12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
       <c r="M12" s="1"/>
       <c r="N12" s="4" t="s">
         <v>17</v>
@@ -942,20 +947,20 @@
       <c r="B13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
       <c r="M13" s="1"/>
       <c r="N13" s="4" t="s">
         <v>18</v>
@@ -975,18 +980,18 @@
       <c r="B14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="1"/>
       <c r="N14" s="4" t="s">
         <v>19</v>
@@ -1006,20 +1011,20 @@
       <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="8"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="7"/>
       <c r="M15" s="1"/>
       <c r="N15" s="4" t="s">
         <v>20</v>
@@ -1039,18 +1044,18 @@
       <c r="B16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L16" s="7" t="s">
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="6" t="s">
         <v>13</v>
       </c>
       <c r="M16" s="1"/>

--- a/documentation/working_schedule.xlsx
+++ b/documentation/working_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebrarsudedogan/PycharmProjects/Mining-Retail-Behavior-in-Istanbul-Malls-Using-Consumer-Sentiment-Indices/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{172BBE77-72D8-514B-9C0E-6FB92CFE5A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144311C5-884A-C245-8EF6-BDF747F073DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{900F4403-C22E-0342-A1F2-D386E10D2AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
   <si>
     <t>Veri Toplama</t>
   </si>
@@ -551,7 +551,7 @@
   <dimension ref="B3:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -866,7 +866,9 @@
         <v>13</v>
       </c>
       <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
+      <c r="S10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
@@ -903,7 +905,9 @@
         <v>13</v>
       </c>
       <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
+      <c r="S11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="T11" s="5"/>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>

--- a/documentation/working_schedule.xlsx
+++ b/documentation/working_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebrarsudedogan/PycharmProjects/Mining-Retail-Behavior-in-Istanbul-Malls-Using-Consumer-Sentiment-Indices/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144311C5-884A-C245-8EF6-BDF747F073DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F99A3-2690-E44D-8CD1-6D083A24CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{900F4403-C22E-0342-A1F2-D386E10D2AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
   <si>
     <t>Veri Toplama</t>
   </si>
@@ -551,7 +551,7 @@
   <dimension ref="B3:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,8 +665,12 @@
         <v>13</v>
       </c>
       <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
+      <c r="S4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
@@ -730,7 +734,9 @@
       </c>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
+      <c r="S6" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -796,7 +802,9 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
+      <c r="S8" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -828,7 +836,9 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="T9" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="U9" s="4"/>
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
@@ -869,7 +879,9 @@
       <c r="S10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="4"/>
+      <c r="T10" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="U10" s="4"/>
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
@@ -908,7 +920,9 @@
       <c r="S11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="T11" s="5"/>
+      <c r="T11" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="U11" s="4"/>
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
@@ -941,7 +955,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="5"/>
+      <c r="T12" s="6"/>
       <c r="U12" s="5"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>

--- a/documentation/working_schedule.xlsx
+++ b/documentation/working_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebrarsudedogan/PycharmProjects/Mining-Retail-Behavior-in-Istanbul-Malls-Using-Consumer-Sentiment-Indices/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445F99A3-2690-E44D-8CD1-6D083A24CBFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0CEEBD-E84A-394C-95BD-ACC71AC69B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14280" xr2:uid="{900F4403-C22E-0342-A1F2-D386E10D2AC7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="26">
   <si>
     <t>Veri Toplama</t>
   </si>
@@ -551,7 +551,7 @@
   <dimension ref="B3:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -956,8 +956,10 @@
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="6"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="4"/>
+      <c r="U12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V12" s="6"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
     </row>
@@ -989,8 +991,10 @@
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
     </row>
@@ -1020,7 +1024,9 @@
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
       <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
+      <c r="U14" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="V14" s="5"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -1054,7 +1060,9 @@
       <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="5"/>
+      <c r="V15" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="W15" s="5"/>
       <c r="X15" s="4"/>
     </row>
@@ -1086,10 +1094,16 @@
       <c r="R16" s="4"/>
       <c r="S16" s="4"/>
       <c r="T16" s="4"/>
-      <c r="U16" s="4"/>
+      <c r="U16" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="V16" s="4"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
+      <c r="W16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="X16" s="6" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
